--- a/data/trans_dic/P25D_R-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P25D_R-Provincia-trans_dic.xlsx
@@ -584,12 +584,12 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,89</t>
+          <t>0,0; 0,79</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,49</t>
+          <t>0,0; 0,33</t>
         </is>
       </c>
     </row>
@@ -629,17 +629,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,64; 5,33</t>
+          <t>0,76; 4,99</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,74</t>
+          <t>0,0; 1,98</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,47; 2,82</t>
+          <t>0,43; 2,57</t>
         </is>
       </c>
     </row>
@@ -679,17 +679,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,32; 3,55</t>
+          <t>0,32; 3,34</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,18; 1,8</t>
+          <t>0,2; 1,86</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,41; 1,88</t>
+          <t>0,4; 1,94</t>
         </is>
       </c>
     </row>
@@ -729,17 +729,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,7</t>
+          <t>0,0; 2,81</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,03</t>
+          <t>0,0; 1,06</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,1; 1,37</t>
+          <t>0,09; 1,35</t>
         </is>
       </c>
     </row>
@@ -779,17 +779,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,59</t>
+          <t>0,0; 2,17</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0,19; 1,73</t>
+          <t>0,19; 1,8</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0,2; 1,33</t>
+          <t>0,2; 1,39</t>
         </is>
       </c>
     </row>
@@ -834,12 +834,12 @@
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,69</t>
+          <t>0,0; 3,21</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,35</t>
+          <t>0,0; 1,32</t>
         </is>
       </c>
     </row>
@@ -879,17 +879,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0,69; 2,67</t>
+          <t>0,64; 2,59</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>0,41; 2,51</t>
+          <t>0,35; 2,63</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>0,63; 2,02</t>
+          <t>0,68; 2,02</t>
         </is>
       </c>
     </row>
@@ -929,17 +929,17 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>0,72; 2,72</t>
+          <t>0,8; 3,07</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>0,36; 1,77</t>
+          <t>0,43; 1,87</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>0,74; 2,07</t>
+          <t>0,76; 2,01</t>
         </is>
       </c>
     </row>
@@ -979,17 +979,17 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>0,76; 1,74</t>
+          <t>0,81; 1,73</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>0,47; 1,05</t>
+          <t>0,47; 1,06</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>0,67; 1,23</t>
+          <t>0,7; 1,23</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P25D_R-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P25D_R-Provincia-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -584,12 +584,12 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,79</t>
+          <t>0,0; 0,89</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,33</t>
+          <t>0,0; 0,49</t>
         </is>
       </c>
     </row>
@@ -629,17 +629,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,76; 4,99</t>
+          <t>0,64; 5,33</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,98</t>
+          <t>0,0; 1,74</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,43; 2,57</t>
+          <t>0,47; 2,82</t>
         </is>
       </c>
     </row>
@@ -679,17 +679,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,32; 3,34</t>
+          <t>0,32; 3,55</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,2; 1,86</t>
+          <t>0,18; 1,8</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,4; 1,94</t>
+          <t>0,41; 1,88</t>
         </is>
       </c>
     </row>
@@ -729,17 +729,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,81</t>
+          <t>0,0; 2,7</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,06</t>
+          <t>0,0; 1,03</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,09; 1,35</t>
+          <t>0,1; 1,37</t>
         </is>
       </c>
     </row>
@@ -779,17 +779,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,17</t>
+          <t>0,0; 2,59</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0,19; 1,8</t>
+          <t>0,19; 1,73</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0,2; 1,39</t>
+          <t>0,2; 1,33</t>
         </is>
       </c>
     </row>
@@ -834,12 +834,12 @@
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,21</t>
+          <t>0,0; 2,69</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,32</t>
+          <t>0,0; 1,35</t>
         </is>
       </c>
     </row>
@@ -879,17 +879,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0,64; 2,59</t>
+          <t>0,69; 2,67</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>0,35; 2,63</t>
+          <t>0,41; 2,51</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>0,68; 2,02</t>
+          <t>0,63; 2,02</t>
         </is>
       </c>
     </row>
@@ -929,17 +929,17 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>0,8; 3,07</t>
+          <t>0,72; 2,72</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>0,43; 1,87</t>
+          <t>0,36; 1,77</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>0,76; 2,01</t>
+          <t>0,74; 2,07</t>
         </is>
       </c>
     </row>
@@ -979,17 +979,17 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>0,81; 1,73</t>
+          <t>0,76; 1,74</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>0,47; 1,06</t>
+          <t>0,47; 1,05</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>0,7; 1,23</t>
+          <t>0,67; 1,23</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P25D_R-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P25D_R-Provincia-trans_dic.xlsx
@@ -561,12 +561,12 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,16%</t>
+          <t>0,15%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,08%</t>
+          <t>0,07%</t>
         </is>
       </c>
     </row>
@@ -584,12 +584,12 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,89</t>
+          <t>0,0; 0,88</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,49</t>
+          <t>0,0; 0,46</t>
         </is>
       </c>
     </row>
@@ -606,17 +606,17 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>2,0%</t>
+          <t>2,11%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,38%</t>
+          <t>0,37%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>1,16%</t>
+          <t>1,24%</t>
         </is>
       </c>
     </row>
@@ -629,17 +629,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,64; 5,33</t>
+          <t>0,68; 5,66</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,74</t>
+          <t>0,0; 1,68</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,47; 2,82</t>
+          <t>0,48; 3,0</t>
         </is>
       </c>
     </row>
@@ -656,7 +656,7 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>1,17%</t>
+          <t>1,24%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
@@ -666,7 +666,7 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,94%</t>
+          <t>0,97%</t>
         </is>
       </c>
     </row>
@@ -679,17 +679,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,32; 3,55</t>
+          <t>0,32; 3,75</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,18; 1,8</t>
+          <t>0,18; 1,78</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,41; 1,88</t>
+          <t>0,44; 2,01</t>
         </is>
       </c>
     </row>
@@ -706,17 +706,17 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,57%</t>
+          <t>0,52%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,32%</t>
+          <t>0,27%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,43%</t>
+          <t>0,37%</t>
         </is>
       </c>
     </row>
@@ -729,17 +729,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,7</t>
+          <t>0,0; 2,42</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,03</t>
+          <t>0,0; 0,94</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,1; 1,37</t>
+          <t>0,09; 1,19</t>
         </is>
       </c>
     </row>
@@ -761,7 +761,7 @@
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,76%</t>
+          <t>0,77%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
@@ -779,17 +779,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,59</t>
+          <t>0,0; 2,6</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0,19; 1,73</t>
+          <t>0,2; 1,76</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0,2; 1,33</t>
+          <t>0,2; 1,34</t>
         </is>
       </c>
     </row>
@@ -811,12 +811,12 @@
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>0,73%</t>
+          <t>0,7%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>0,36%</t>
+          <t>0,34%</t>
         </is>
       </c>
     </row>
@@ -834,12 +834,12 @@
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,69</t>
+          <t>0,0; 2,56</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,35</t>
+          <t>0,0; 1,2</t>
         </is>
       </c>
     </row>
@@ -856,17 +856,17 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>1,41%</t>
+          <t>1,37%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>1,03%</t>
+          <t>0,89%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>1,19%</t>
+          <t>1,09%</t>
         </is>
       </c>
     </row>
@@ -879,17 +879,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0,69; 2,67</t>
+          <t>0,68; 2,61</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>0,41; 2,51</t>
+          <t>0,29; 2,12</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>0,63; 2,02</t>
+          <t>0,54; 1,83</t>
         </is>
       </c>
     </row>
@@ -906,17 +906,17 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>1,62%</t>
+          <t>1,27%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>0,94%</t>
+          <t>0,93%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>1,27%</t>
+          <t>1,12%</t>
         </is>
       </c>
     </row>
@@ -929,17 +929,17 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>0,72; 2,72</t>
+          <t>0,34; 2,33</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>0,36; 1,77</t>
+          <t>0,36; 1,72</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>0,74; 2,07</t>
+          <t>0,57; 1,91</t>
         </is>
       </c>
     </row>
@@ -956,17 +956,17 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>1,17%</t>
+          <t>1,08%</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>0,7%</t>
+          <t>0,65%</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>0,92%</t>
+          <t>0,86%</t>
         </is>
       </c>
     </row>
@@ -979,17 +979,17 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>0,76; 1,74</t>
+          <t>0,69; 1,68</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>0,47; 1,05</t>
+          <t>0,41; 0,98</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>0,67; 1,23</t>
+          <t>0,62; 1,16</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P25D_R-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P25D_R-Provincia-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -546,7 +547,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>Almería</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -584,19 +585,19 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,88</t>
+          <t>0,0; 0,82</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,46</t>
+          <t>0,0; 0,37</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Cadiz</t>
+          <t>Cádiz</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -629,24 +630,24 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,68; 5,66</t>
+          <t>0,61; 5,53</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,68</t>
+          <t>0,0; 1,96</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,48; 3,0</t>
+          <t>0,53; 2,97</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Córdoba</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -679,17 +680,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,32; 3,75</t>
+          <t>0,32; 3,27</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,18; 1,78</t>
+          <t>0,19; 1,96</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,44; 2,01</t>
+          <t>0,4; 2,15</t>
         </is>
       </c>
     </row>
@@ -729,17 +730,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,42</t>
+          <t>0,0; 2,43</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,94</t>
+          <t>0,0; 0,91</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,09; 1,19</t>
+          <t>0,09; 1,22</t>
         </is>
       </c>
     </row>
@@ -779,24 +780,24 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,6</t>
+          <t>0,0; 1,91</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0,2; 1,76</t>
+          <t>0,18; 1,95</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0,2; 1,34</t>
+          <t>0,21; 1,34</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Jaen</t>
+          <t>Jaén</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -834,19 +835,19 @@
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,56</t>
+          <t>0,0; 2,82</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,2</t>
+          <t>0,0; 1,19</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Málaga</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -879,17 +880,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0,68; 2,61</t>
+          <t>0,64; 2,59</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>0,29; 2,12</t>
+          <t>0,29; 2,09</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>0,54; 1,83</t>
+          <t>0,56; 1,82</t>
         </is>
       </c>
     </row>
@@ -929,17 +930,17 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>0,34; 2,33</t>
+          <t>0,46; 2,5</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>0,36; 1,72</t>
+          <t>0,43; 1,9</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>0,57; 1,91</t>
+          <t>0,58; 1,88</t>
         </is>
       </c>
     </row>
@@ -979,17 +980,17 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>0,69; 1,68</t>
+          <t>0,69; 1,66</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>0,41; 0,98</t>
+          <t>0,42; 0,97</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>0,62; 1,16</t>
+          <t>0,63; 1,16</t>
         </is>
       </c>
     </row>
@@ -1015,4 +1016,758 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que fuma diariamente cigarrillos electrónicos</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="E1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Almería</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>442</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>442</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>0; 1801</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>0; 2386</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>0; 2199</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Cádiz</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>10951</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>1897</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>12848</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>3159; 28683</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>0; 10082</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>5501; 30726</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Córdoba</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>3917</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>2565</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>6483</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>1011; 10344</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>657; 6832</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>2641; 14273</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Granada</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>1630</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>1297</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>2927</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>0; 7594</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>0; 4320</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>717; 9589</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Huelva</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>694</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>1603</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>2296</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>0; 3412</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>383; 4074</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>794; 5172</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>Jaén</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>1798</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>1798</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>0; 1391</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>0; 7248</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>0; 6290</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Málaga</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>8444</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>7487</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>15931</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>3957; 15941</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>2461; 17592</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>8152; 26563</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>Sevilla</t>
+        </is>
+      </c>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>11774</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>6653</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>18427</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>4269; 23167</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>3065; 13662</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
+          <t>9472; 30901</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B28" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C28" s="2" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="D28" s="2" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="E28" s="2" t="inlineStr">
+        <is>
+          <t>61</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n"/>
+      <c r="B29" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C29" s="2" t="inlineStr">
+        <is>
+          <t>37411</t>
+        </is>
+      </c>
+      <c r="D29" s="2" t="inlineStr">
+        <is>
+          <t>23740</t>
+        </is>
+      </c>
+      <c r="E29" s="2" t="inlineStr">
+        <is>
+          <t>61151</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n"/>
+      <c r="B30" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C30" s="2" t="inlineStr">
+        <is>
+          <t>23831; 57128</t>
+        </is>
+      </c>
+      <c r="D30" s="2" t="inlineStr">
+        <is>
+          <t>15475; 35432</t>
+        </is>
+      </c>
+      <c r="E30" s="2" t="inlineStr">
+        <is>
+          <t>44527; 82700</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="A28:A30"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>